--- a/Team-Data/2008-09/3-6-2008-09.xlsx
+++ b/Team-Data/2008-09/3-6-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -693,16 +760,16 @@
         <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q2" t="n">
         <v>0.735</v>
@@ -711,40 +778,40 @@
         <v>10.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,28 +841,28 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -863,31 +930,31 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
@@ -899,13 +966,13 @@
         <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -914,19 +981,19 @@
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -941,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -953,19 +1020,19 @@
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.435</v>
+        <v>0.426</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J4" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>5.9</v>
       </c>
       <c r="M4" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
         <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1081,13 +1148,13 @@
         <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>19</v>
       </c>
-      <c r="AF4" t="n">
-        <v>18</v>
-      </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1144,10 +1211,10 @@
         <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
         <v>16</v>
@@ -1159,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1297,7 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.451</v>
@@ -1242,31 +1309,31 @@
         <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,7 +1342,7 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21.5</v>
@@ -1284,13 +1351,13 @@
         <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1332,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="n">
         <v>12</v>
       </c>
-      <c r="AT5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>13</v>
-      </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1353,13 +1420,13 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1415,64 +1482,64 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
         <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
         <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1487,7 +1554,7 @@
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1502,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1520,25 +1587,25 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>6</v>
       </c>
-      <c r="AY6" t="n">
-        <v>7</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1711,13 +1778,13 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.635</v>
+        <v>0.645</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
@@ -1788,34 +1855,34 @@
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
         <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
         <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
@@ -1824,25 +1891,25 @@
         <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
       </c>
       <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1851,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>13</v>
@@ -1902,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.517</v>
+        <v>0.508</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.454</v>
@@ -1967,43 +2034,43 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R9" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="U9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
         <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2012,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2054,22 +2121,22 @@
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
       </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J10" t="n">
         <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
         <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2173,7 +2240,7 @@
         <v>41.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2194,13 +2261,13 @@
         <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL10" t="n">
         <v>14</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2242,19 +2309,19 @@
         <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2263,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J11" t="n">
         <v>79.59999999999999</v>
@@ -2334,22 +2401,22 @@
         <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P11" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R11" t="n">
         <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
         <v>42.8</v>
@@ -2358,25 +2425,25 @@
         <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC11" t="n">
         <v>3.8</v>
@@ -2385,19 +2452,19 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
@@ -2415,16 +2482,16 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,16 +2515,16 @@
         <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2618,16 +2685,16 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2785,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>12</v>
@@ -2797,22 +2864,22 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,16 +2944,16 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
         <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
@@ -2895,40 +2962,40 @@
         <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
         <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2955,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -2997,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3158,7 +3225,7 @@
         <v>28</v>
       </c>
       <c r="AT15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3176,7 +3243,7 @@
         <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.541</v>
+        <v>0.533</v>
       </c>
       <c r="H16" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
         <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
         <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.1</v>
@@ -3280,40 +3347,40 @@
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3331,34 +3398,34 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -3411,13 +3478,13 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -3426,10 +3493,10 @@
         <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.364</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.9</v>
@@ -3441,10 +3508,10 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
@@ -3453,10 +3520,10 @@
         <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
@@ -3468,10 +3535,10 @@
         <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3498,40 +3565,40 @@
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3689,13 +3756,13 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>17</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.435</v>
+        <v>0.443</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3787,7 +3854,7 @@
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.376</v>
@@ -3796,19 +3863,19 @@
         <v>19.3</v>
       </c>
       <c r="P19" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q19" t="n">
         <v>0.786</v>
       </c>
       <c r="R19" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S19" t="n">
         <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U19" t="n">
         <v>19.7</v>
@@ -3838,13 +3905,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3880,10 +3947,10 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>21</v>
@@ -3895,22 +3962,22 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4038,7 +4105,7 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,10 +4117,10 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4077,19 +4144,19 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>10</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4417,10 +4484,10 @@
         <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4435,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4453,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.738</v>
+        <v>0.733</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,34 +4576,34 @@
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.2</v>
@@ -4545,28 +4612,28 @@
         <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
         <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4614,25 +4681,25 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4766,10 +4833,10 @@
         <v>18</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4793,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
@@ -4805,16 +4872,16 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K25" t="n">
         <v>0.502</v>
@@ -4879,25 +4946,25 @@
         <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
         <v>41.4</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,13 +5015,13 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
         <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,16 +5131,16 @@
         <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5094,40 +5161,40 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3.8</v>
       </c>
-      <c r="Z26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="n">
         <v>9</v>
       </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>8</v>
-      </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5139,13 +5206,13 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5169,10 +5236,10 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,13 +5248,13 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5318,13 +5385,13 @@
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5348,10 +5415,10 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,10 +5483,10 @@
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>7.9</v>
@@ -5428,7 +5495,7 @@
         <v>20.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
         <v>15.4</v>
@@ -5443,7 +5510,7 @@
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
         <v>41</v>
@@ -5452,7 +5519,7 @@
         <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5464,19 +5531,19 @@
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5494,7 +5561,7 @@
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,10 +5606,10 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
@@ -5598,25 +5665,25 @@
         <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.83</v>
@@ -5625,19 +5692,19 @@
         <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.9</v>
@@ -5649,13 +5716,13 @@
         <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
         <v>3</v>
@@ -5679,10 +5746,10 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
         <v>22</v>
@@ -5691,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5703,16 +5770,16 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5795,10 +5862,10 @@
         <v>0.347</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.773</v>
@@ -5813,7 +5880,7 @@
         <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -5831,16 +5898,16 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC30" t="n">
         <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5849,22 +5916,22 @@
         <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY30" t="n">
         <v>16</v>
       </c>
-      <c r="AY30" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
         <v>17.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
         <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
@@ -6004,7 +6071,7 @@
         <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
         <v>5.2</v>
@@ -6013,22 +6080,22 @@
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6073,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-6-2008-09</t>
+          <t>2009-03-06</t>
         </is>
       </c>
     </row>
